--- a/roles/user/excel/LocalUserOperation_Positive.xlsx
+++ b/roles/user/excel/LocalUserOperation_Positive.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ksss/projects/WindowsPlaybooks/roles/user/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB45EB7-91AD-8540-A775-6BBBAAC25945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AEF251-C93D-E34B-BC95-6515D360BCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33260" yWindow="2120" windowWidth="27240" windowHeight="15660" xr2:uid="{F294472C-024A-3C4D-9831-FDDF0D69A78A}"/>
   </bookViews>
@@ -76,7 +76,7 @@
     <t>create</t>
   </si>
   <si>
-    <t>192.168.172.2</t>
+    <t>192.168.176.2</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -441,6 +441,7 @@
     <col min="5" max="5" width="17.5" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="25.1640625" customWidth="1"/>
+    <col min="9" max="9" width="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">

--- a/roles/user/excel/LocalUserOperation_Positive.xlsx
+++ b/roles/user/excel/LocalUserOperation_Positive.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ksss/projects/WindowsPlaybooks/roles/user/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3AEF251-C93D-E34B-BC95-6515D360BCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B92B84C-A062-9B42-B6BE-3049E9DBDE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33260" yWindow="2120" windowWidth="27240" windowHeight="15660" xr2:uid="{F294472C-024A-3C4D-9831-FDDF0D69A78A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t>UserName</t>
   </si>
@@ -77,6 +77,18 @@
   </si>
   <si>
     <t>192.168.176.2</t>
+  </si>
+  <si>
+    <t>192.168.176.2,192.168.176.3</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>Test2</t>
+  </si>
+  <si>
+    <t>192.168.176.3</t>
   </si>
 </sst>
 </file>
@@ -428,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F394EBF6-F5C6-F94B-B522-23E3CFBB627E}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -441,7 +453,7 @@
     <col min="5" max="5" width="17.5" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="25.1640625" customWidth="1"/>
-    <col min="9" max="9" width="21" customWidth="1"/>
+    <col min="9" max="9" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -499,7 +511,65 @@
         <v>12</v>
       </c>
       <c r="I2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>12345</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>12345</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/roles/user/excel/LocalUserOperation_Positive.xlsx
+++ b/roles/user/excel/LocalUserOperation_Positive.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ksss/projects/WindowsPlaybooks/roles/user/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B92B84C-A062-9B42-B6BE-3049E9DBDE33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B755FD9A-835E-1D47-98AA-EC1C0A324729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33260" yWindow="2120" windowWidth="27240" windowHeight="15660" xr2:uid="{F294472C-024A-3C4D-9831-FDDF0D69A78A}"/>
+    <workbookView xWindow="33240" yWindow="2100" windowWidth="27240" windowHeight="15660" xr2:uid="{F294472C-024A-3C4D-9831-FDDF0D69A78A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>UserName</t>
   </si>
@@ -43,12 +43,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>PasswordRequired</t>
-  </si>
-  <si>
-    <t>AccountExpiry</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -65,9 +59,6 @@
   </si>
   <si>
     <t>Test</t>
-  </si>
-  <si>
-    <t>Yes</t>
   </si>
   <si>
     <t>No</t>
@@ -440,136 +431,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F394EBF6-F5C6-F94B-B522-23E3CFBB627E}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="3" width="17.83203125" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.5" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="25.1640625" customWidth="1"/>
-    <col min="9" max="9" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="25.1640625" customWidth="1"/>
+    <col min="7" max="7" width="27.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>12345</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>12345</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>12345</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>12345</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>12345</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>12345</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/roles/user/excel/LocalUserOperation_Positive.xlsx
+++ b/roles/user/excel/LocalUserOperation_Positive.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ksss/projects/WindowsPlaybooks/roles/user/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ravindrakumar/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B755FD9A-835E-1D47-98AA-EC1C0A324729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF17D53-2B0C-9744-AA9D-3B1D7CA0BF8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33240" yWindow="2100" windowWidth="27240" windowHeight="15660" xr2:uid="{F294472C-024A-3C4D-9831-FDDF0D69A78A}"/>
+    <workbookView xWindow="13380" yWindow="5360" windowWidth="27240" windowHeight="15660" xr2:uid="{F294472C-024A-3C4D-9831-FDDF0D69A78A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="13">
   <si>
     <t>UserName</t>
   </si>
@@ -67,29 +67,29 @@
     <t>create</t>
   </si>
   <si>
-    <t>192.168.176.2</t>
-  </si>
-  <si>
-    <t>192.168.176.2,192.168.176.3</t>
-  </si>
-  <si>
     <t>Test1</t>
   </si>
   <si>
     <t>Test2</t>
   </si>
   <si>
-    <t>192.168.176.3</t>
+    <t>192.168.4.92</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -434,7 +434,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -488,15 +488,15 @@
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -511,15 +511,15 @@
         <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -534,10 +534,11 @@
         <v>9</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>